--- a/Bin/db/files/HiCONiS Commissioning Report-Total.xlsx
+++ b/Bin/db/files/HiCONiS Commissioning Report-Total.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pjh\Dev\Lang\Delphi\Project\GSManage\Bin\db\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E076FFB4-05B8-473C-81A6-BF72D7FF9980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63DD72F-B822-4A38-BAEF-D95678AEBAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="13440" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="요약" sheetId="106" r:id="rId1"/>
+    <sheet name="Total" sheetId="106" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="dfgs">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">요약!$A$1:$L$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Total!$A$1:$L$61</definedName>
     <definedName name="ㄹ17">#REF!</definedName>
     <definedName name="새로운시트">#REF!</definedName>
   </definedNames>
@@ -409,14 +409,14 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="굴림"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="굴림"/>
+      <name val="굴림체"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -822,45 +822,45 @@
     <xf numFmtId="49" fontId="25" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="16" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="16" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="17" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="17" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1041,10 +1041,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1185,16 +1185,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>1276350</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>190500</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1272,15 +1272,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>657225</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>657225</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1358,15 +1358,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:colOff>438150</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>866775</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1443,16 +1443,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>876300</xdr:colOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>742950</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1530,15 +1530,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>409575</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>409575</xdr:colOff>
+          <xdr:colOff>428625</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1616,15 +1616,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>361950</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2018,8 +2018,8 @@
   </sheetPr>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2083,7 +2083,7 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:12" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="108"/>
@@ -2095,7 +2095,7 @@
       <c r="F4" s="113"/>
       <c r="G4" s="115"/>
       <c r="H4" s="116"/>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="45" t="s">
         <v>31</v>
       </c>
       <c r="J4" s="110"/>
@@ -2103,7 +2103,7 @@
       <c r="L4" s="112"/>
     </row>
     <row r="5" spans="1:12" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="45" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="110"/>
@@ -2115,7 +2115,7 @@
       <c r="F5" s="113"/>
       <c r="G5" s="110"/>
       <c r="H5" s="112"/>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="46" t="s">
         <v>34</v>
       </c>
       <c r="J5" s="110"/>
@@ -2280,11 +2280,11 @@
       <c r="E17" s="119"/>
       <c r="F17" s="119"/>
       <c r="G17" s="119"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="49"/>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="102"/>
@@ -2294,11 +2294,11 @@
       <c r="E18" s="103"/>
       <c r="F18" s="103"/>
       <c r="G18" s="103"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="53"/>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="102"/>
@@ -2308,11 +2308,11 @@
       <c r="E19" s="103"/>
       <c r="F19" s="103"/>
       <c r="G19" s="103"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="53"/>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="102"/>
@@ -2322,11 +2322,11 @@
       <c r="E20" s="103"/>
       <c r="F20" s="103"/>
       <c r="G20" s="103"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="53"/>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="102"/>
@@ -2336,11 +2336,11 @@
       <c r="E21" s="103"/>
       <c r="F21" s="103"/>
       <c r="G21" s="103"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="50"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="52"/>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="102"/>
@@ -2350,11 +2350,11 @@
       <c r="E22" s="103"/>
       <c r="F22" s="103"/>
       <c r="G22" s="103"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="53"/>
     </row>
     <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="102"/>
@@ -2364,11 +2364,11 @@
       <c r="E23" s="103"/>
       <c r="F23" s="103"/>
       <c r="G23" s="103"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="50"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="52"/>
     </row>
     <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="102"/>
@@ -2378,11 +2378,11 @@
       <c r="E24" s="103"/>
       <c r="F24" s="103"/>
       <c r="G24" s="103"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="53"/>
     </row>
     <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="102"/>
@@ -2392,11 +2392,11 @@
       <c r="E25" s="103"/>
       <c r="F25" s="103"/>
       <c r="G25" s="104"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="53"/>
     </row>
     <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="102"/>
@@ -2406,11 +2406,11 @@
       <c r="E26" s="103"/>
       <c r="F26" s="103"/>
       <c r="G26" s="104"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="53"/>
     </row>
     <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="102"/>
@@ -2420,11 +2420,11 @@
       <c r="E27" s="103"/>
       <c r="F27" s="103"/>
       <c r="G27" s="104"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="53"/>
     </row>
     <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="102"/>
@@ -2434,11 +2434,11 @@
       <c r="E28" s="103"/>
       <c r="F28" s="103"/>
       <c r="G28" s="104"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="53"/>
     </row>
     <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="102"/>
@@ -2448,11 +2448,11 @@
       <c r="E29" s="103"/>
       <c r="F29" s="103"/>
       <c r="G29" s="104"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="53"/>
     </row>
     <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="102"/>
@@ -2462,11 +2462,11 @@
       <c r="E30" s="103"/>
       <c r="F30" s="103"/>
       <c r="G30" s="104"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="53"/>
     </row>
     <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="102"/>
@@ -2476,11 +2476,11 @@
       <c r="E31" s="103"/>
       <c r="F31" s="103"/>
       <c r="G31" s="104"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="53"/>
     </row>
     <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="102"/>
@@ -2490,11 +2490,11 @@
       <c r="E32" s="103"/>
       <c r="F32" s="103"/>
       <c r="G32" s="104"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="53"/>
     </row>
     <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="102"/>
@@ -2504,11 +2504,11 @@
       <c r="E33" s="103"/>
       <c r="F33" s="103"/>
       <c r="G33" s="104"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="53"/>
     </row>
     <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="102"/>
@@ -2518,11 +2518,11 @@
       <c r="E34" s="103"/>
       <c r="F34" s="103"/>
       <c r="G34" s="104"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="53"/>
     </row>
     <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="102"/>
@@ -2532,11 +2532,11 @@
       <c r="E35" s="103"/>
       <c r="F35" s="103"/>
       <c r="G35" s="104"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="53"/>
     </row>
     <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="102"/>
@@ -2546,11 +2546,11 @@
       <c r="E36" s="103"/>
       <c r="F36" s="103"/>
       <c r="G36" s="104"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="53"/>
     </row>
     <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="102"/>
@@ -2560,11 +2560,11 @@
       <c r="E37" s="103"/>
       <c r="F37" s="103"/>
       <c r="G37" s="104"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="53"/>
     </row>
     <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="102"/>
@@ -2574,11 +2574,11 @@
       <c r="E38" s="103"/>
       <c r="F38" s="103"/>
       <c r="G38" s="104"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="53"/>
     </row>
     <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="102"/>
@@ -2588,11 +2588,11 @@
       <c r="E39" s="103"/>
       <c r="F39" s="103"/>
       <c r="G39" s="104"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="53"/>
     </row>
     <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="102"/>
@@ -2602,11 +2602,11 @@
       <c r="E40" s="103"/>
       <c r="F40" s="103"/>
       <c r="G40" s="104"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="53"/>
     </row>
     <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="102"/>
@@ -2616,11 +2616,11 @@
       <c r="E41" s="103"/>
       <c r="F41" s="103"/>
       <c r="G41" s="104"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="53"/>
     </row>
     <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="102"/>
@@ -2630,11 +2630,11 @@
       <c r="E42" s="103"/>
       <c r="F42" s="103"/>
       <c r="G42" s="104"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="53"/>
     </row>
     <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="102"/>
@@ -2644,11 +2644,11 @@
       <c r="E43" s="103"/>
       <c r="F43" s="103"/>
       <c r="G43" s="104"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="53"/>
     </row>
     <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="102"/>
@@ -2658,11 +2658,11 @@
       <c r="E44" s="103"/>
       <c r="F44" s="103"/>
       <c r="G44" s="104"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="53"/>
     </row>
     <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="102"/>
@@ -2672,11 +2672,11 @@
       <c r="E45" s="103"/>
       <c r="F45" s="103"/>
       <c r="G45" s="103"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="51"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="53"/>
     </row>
     <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="39" t="s">
@@ -3025,16 +3025,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>1276350</xdr:colOff>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>95250</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>190500</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>133350</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3048,15 +3048,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>257175</xdr:colOff>
+                    <xdr:colOff>657225</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>114300</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>257175</xdr:colOff>
+                    <xdr:colOff>657225</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>152400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3070,15 +3070,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>342900</xdr:colOff>
+                    <xdr:colOff>438150</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>123825</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>866775</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3091,16 +3091,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>876300</xdr:colOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>114300</xdr:rowOff>
+                    <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>742950</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3114,15 +3114,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>409575</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>114300</xdr:rowOff>
+                    <xdr:rowOff>133350</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>409575</xdr:colOff>
+                    <xdr:colOff>428625</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3136,15 +3136,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>361950</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>114300</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
